--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -3,37 +3,28 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="wheat" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rice" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="wheat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="rice" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -47,27 +38,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -80,15 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -468,197 +438,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>From</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>From_state</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>To</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>To_state</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BLZ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BSC</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12.2634</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BAT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>38.9151</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KXH</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HRI</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23.3415</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SFMU</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>KSV</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>12.2634</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -668,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,85 +465,161 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>From_state</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>To_state</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Values</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>Cost</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KKDE</t>
+          <t>KRAR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ETW</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>16.1919</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>From_state</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>To_state</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HMH</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ARA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BSPN</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -765,12 +629,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TSG</t>
+          <t>KRAR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -781,32 +645,29 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>20.196</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PGW</t>
+          <t>KMT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SIC</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>UP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -816,81 +677,6 @@
       </c>
       <c r="G4" t="n">
         <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26.4762</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KNNN</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>POU</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>32.6673</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SAG</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ALJN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13.8294</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,39 +494,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KRAR</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,22 +553,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HMH</t>
+          <t>KRMR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARA</t>
+          <t>FKG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -610,72 +577,6 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CDG</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>KRAR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Odisha</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KMT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -553,22 +553,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KRMR</t>
+          <t>BJU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FKG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -6,12 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="wheat" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="rice" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -438,15 +437,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ARA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AJL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AY+AYC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -456,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +570,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>From_state</t>
+          <t>From State</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -482,58 +580,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>To_state</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Values</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>From</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>From_state</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>To</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>To_state</t>
+          <t>To State</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -553,31 +600,99 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJU</t>
+          <t>BHT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>AAM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BXC</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CMGR+CMNR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BGTN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>WHEAT</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,13 +17,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -437,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,39 +469,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>From State</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>To State</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cost</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -509,9 +537,12 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="n">
+        <v>1671.3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,7 +557,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AY+AYC</t>
+          <t>AY</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -541,6 +572,9 @@
       </c>
       <c r="G3" t="n">
         <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1095.5</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,39 +597,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>From State</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>To State</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cost</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -626,9 +665,12 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="n">
+        <v>2866.8</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -643,7 +685,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CMGR+CMNR</t>
+          <t>CMGR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -659,9 +701,12 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
+      <c r="H3" t="n">
+        <v>2545.8</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -689,10 +734,11 @@
           <t>WHEAT</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2396.8</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>Values</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -511,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABS</t>
+          <t>CWHN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -521,12 +516,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARA</t>
+          <t>CWHN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,45 +531,6 @@
       </c>
       <c r="G2" t="n">
         <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1671.3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AJL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>AY</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1095.5</v>
       </c>
     </row>
   </sheetData>
@@ -588,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,119 +583,6 @@
           <t>Values</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Cost</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BHT</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>AAM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Kerala</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2866.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BXC</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CMGR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2545.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BGTN</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>WHEAT</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2396.8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,39 +498,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CWHN</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CWHN</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,35 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Sr. No</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>From State</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>To State</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Values</t>
         </is>
@@ -511,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,32 +527,63 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>sr</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>From State</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>To State</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Values</t>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ENB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BBU</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
         </is>
       </c>
     </row>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="wheat" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="rra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -460,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,39 +470,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Sr. No</t>
+          <t>From State</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>To</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>To State</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>To State</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>Commodity</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Values</t>
         </is>
       </c>
     </row>
@@ -516,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,65 +516,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>sr</t>
+          <t>To</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
           <t>From</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>From State</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>To State</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BGBR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>VSG</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ENB</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>BBU</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
+          <t>RRA</t>
         </is>
       </c>
     </row>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -9,6 +9,12 @@
     <sheet name="rice" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="wheat" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="rra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="coarse_grain" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="frk_rra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="frk_br" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="frk" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="frkcgr" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="wcgr" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -507,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,12 +529,27 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
@@ -543,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,29 +580,423 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>To</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BGBR</t>
+          <t>BIDR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VSG</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>RRA</t>
+          <t>BBMN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRK RRA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BUDI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BRW</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FRK RRA</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CHD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HZBN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FRK RRA</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From State</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To State</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
         </is>
       </c>
     </row>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -564,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,36 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BBMN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DPJ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RRA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,96 +734,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BIDR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BBMN</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Jammu &amp; Kashmir</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FRK RRA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BUDI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BRW</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FRK RRA</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CHD</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HZBN</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Jharkhand</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FRK RRA</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,22 +524,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,6 +551,36 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AUBR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HAN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -575,22 +605,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -607,22 +637,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BBMN</t>
+          <t>AUBR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DPJ</t>
+          <t>HMG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -656,22 +686,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -707,22 +737,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -758,22 +788,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,22 +839,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -860,22 +890,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -911,22 +941,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>From</t>
+          <t>SourceRailHead</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>From State</t>
+          <t>SourceState</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>To</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>To State</t>
+          <t>DestinationState</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,22 +556,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AUBR</t>
+          <t>BSP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>SMBX+FCSJ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -580,6 +580,36 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chattisgarh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BTI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -594,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,36 +662,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AUBR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HMG</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>RRA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,22 +556,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BSP</t>
+          <t>FCP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SMBX+FCSJ</t>
+          <t>BNF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -580,36 +580,6 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BH</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Chattisgarh</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BTI</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -726,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +734,36 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ABS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GMUV</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>UP Region</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRK RRA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,36 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JAT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BH</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RRA</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Output/List_DPT.xlsx
+++ b/Output/List_DPT.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,58 +529,18 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>SourceState</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>DestinationRailHead</t>
+          <t>Commodity</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>DestinationState</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FCP</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BNF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,25 +570,15 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>SourceState</t>
+          <t>DestinationRailHead</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>DestinationRailHead</t>
+          <t>Commodity</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>DestinationState</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Values</t>
         </is>
@@ -637,30 +587,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JAT</t>
+          <t>BRCY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>HSRA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BH</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>RRA</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -726,7 +666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,36 +704,6 @@
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ABS</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GMUV</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>UP Region</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FRK RRA</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,6 +808,36 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AWB</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FCSJ</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRK</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -909,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,6 +887,66 @@
         <is>
           <t>Values</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JJKR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BGTA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRK+CGR</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HKG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BGTA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FRK+CGR</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
